--- a/ArticleManage/main_working_folder/output_folders/Data 1 Preparation and electrochemical characterization/Data1_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 1 Preparation and electrochemical characterization/Data1_all_graphs_excel.xlsx
@@ -7579,7 +7579,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7600,397 +7600,365 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0209</v>
+        <v>0.1494</v>
       </c>
       <c r="B3" s="0">
-        <v>312.2241</v>
+        <v>428.9489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0354</v>
+        <v>0.2281</v>
       </c>
       <c r="B4" s="0">
-        <v>336.9459</v>
+        <v>465.5361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0558</v>
+        <v>0.2953</v>
       </c>
       <c r="B5" s="0">
-        <v>357.9507</v>
+        <v>486.2117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0667</v>
+        <v>0.3161</v>
       </c>
       <c r="B6" s="0">
-        <v>382.5649</v>
+        <v>492.0104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0869</v>
+        <v>0.3369</v>
       </c>
       <c r="B7" s="0">
-        <v>384.6561</v>
+        <v>498.0729</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1077</v>
+        <v>0.3577</v>
       </c>
       <c r="B8" s="0">
-        <v>401.1016</v>
+        <v>504.3464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1286</v>
+        <v>0.3786</v>
       </c>
       <c r="B9" s="0">
-        <v>414.2339</v>
+        <v>509.3537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1494</v>
+        <v>0.3994</v>
       </c>
       <c r="B10" s="0">
-        <v>428.9489</v>
+        <v>514.2555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1703</v>
+        <v>0.4202</v>
       </c>
       <c r="B11" s="0">
-        <v>441.026</v>
+        <v>519.0517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1911</v>
+        <v>0.4418</v>
       </c>
       <c r="B12" s="0">
-        <v>450.5706</v>
+        <v>522.2903</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2119</v>
+        <v>0.4619</v>
       </c>
       <c r="B13" s="0">
-        <v>459.4821</v>
+        <v>529.0351</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2328</v>
+        <v>0.4814</v>
       </c>
       <c r="B14" s="0">
-        <v>466.9691</v>
+        <v>529.327</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2536</v>
+        <v>0.5022</v>
       </c>
       <c r="B15" s="0">
-        <v>474.1395</v>
+        <v>534.8811</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2744</v>
+        <v>0.5227</v>
       </c>
       <c r="B16" s="0">
-        <v>483.051</v>
+        <v>536.0993</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2953</v>
+        <v>0.5449</v>
       </c>
       <c r="B17" s="0">
-        <v>486.2117</v>
+        <v>538.5869</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3161</v>
+        <v>0.5661</v>
       </c>
       <c r="B18" s="0">
-        <v>492.0104</v>
+        <v>541.5752</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3369</v>
+        <v>0.5868</v>
       </c>
       <c r="B19" s="0">
-        <v>498.0729</v>
+        <v>542.3326</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3577</v>
+        <v>0.6083</v>
       </c>
       <c r="B20" s="0">
-        <v>504.3464</v>
+        <v>543.3756</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3786</v>
+        <v>0.6285</v>
       </c>
       <c r="B21" s="0">
-        <v>509.3537</v>
+        <v>546.6492</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3994</v>
+        <v>0.6493</v>
       </c>
       <c r="B22" s="0">
-        <v>514.2555</v>
+        <v>548.7019</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4202</v>
+        <v>0.6701</v>
       </c>
       <c r="B23" s="0">
-        <v>519.0517</v>
+        <v>550.206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4418</v>
+        <v>0.6909</v>
       </c>
       <c r="B24" s="0">
-        <v>522.2903</v>
+        <v>552.913</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4619</v>
+        <v>0.7117</v>
       </c>
       <c r="B25" s="0">
-        <v>529.0351</v>
+        <v>551.6947</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4814</v>
+        <v>0.7326</v>
       </c>
       <c r="B26" s="0">
-        <v>529.327</v>
+        <v>553.4309</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5022</v>
+        <v>0.7534</v>
       </c>
       <c r="B27" s="0">
-        <v>534.8811</v>
+        <v>555.1671</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5227</v>
+        <v>0.7742</v>
       </c>
       <c r="B28" s="0">
-        <v>536.0993</v>
+        <v>556.4812</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5449</v>
+        <v>0.7947</v>
       </c>
       <c r="B29" s="0">
-        <v>538.5869</v>
+        <v>557.4429</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5661</v>
+        <v>0.8158</v>
       </c>
       <c r="B30" s="0">
-        <v>541.5752</v>
+        <v>560.3757</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5868</v>
+        <v>0.8367</v>
       </c>
       <c r="B31" s="0">
-        <v>542.3326</v>
+        <v>559.7905</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6083</v>
+        <v>0.8575</v>
       </c>
       <c r="B32" s="0">
-        <v>543.3756</v>
+        <v>559.8384</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6285</v>
+        <v>0.8783</v>
       </c>
       <c r="B33" s="0">
-        <v>546.6492</v>
+        <v>561.6802</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6493</v>
+        <v>0.8991</v>
       </c>
       <c r="B34" s="0">
-        <v>548.7019</v>
+        <v>564.6826</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6701</v>
+        <v>0.92</v>
       </c>
       <c r="B35" s="0">
-        <v>550.206</v>
+        <v>565.4692</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6909</v>
+        <v>0.9408</v>
       </c>
       <c r="B36" s="0">
-        <v>552.913</v>
+        <v>568.0759</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7117</v>
+        <v>0.9616</v>
       </c>
       <c r="B37" s="0">
-        <v>551.6947</v>
+        <v>571.6323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.7326</v>
+        <v>0.9824</v>
       </c>
       <c r="B38" s="0">
-        <v>553.4309</v>
+        <v>581.3985</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7534</v>
+        <v>0.9976</v>
       </c>
       <c r="B39" s="0">
-        <v>555.1671</v>
+        <v>594.8976</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.7742</v>
+        <v>0.026</v>
       </c>
       <c r="B40" s="0">
-        <v>556.4812</v>
+        <v>321.1887</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.7947</v>
+        <v>0.0516</v>
       </c>
       <c r="B41" s="0">
-        <v>557.4429</v>
+        <v>355.3812</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8158</v>
+        <v>0.0772</v>
       </c>
       <c r="B42" s="0">
-        <v>560.3757</v>
+        <v>379.618</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.8367</v>
+        <v>0.1004</v>
       </c>
       <c r="B43" s="0">
-        <v>559.7905</v>
+        <v>393.8938</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.8575</v>
+        <v>0.1259</v>
       </c>
       <c r="B44" s="0">
-        <v>559.8384</v>
+        <v>412.4416</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.8783</v>
+        <v>0.1747</v>
       </c>
       <c r="B45" s="0">
-        <v>561.6802</v>
+        <v>443.843</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.8991</v>
+        <v>0.2002</v>
       </c>
       <c r="B46" s="0">
-        <v>564.6826</v>
+        <v>453.8573</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.92</v>
+        <v>0.2524</v>
       </c>
       <c r="B47" s="0">
-        <v>565.4692</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9408</v>
-      </c>
-      <c r="B48" s="0">
-        <v>568.0759</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9616</v>
-      </c>
-      <c r="B49" s="0">
-        <v>571.6323</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9824</v>
-      </c>
-      <c r="B50" s="0">
-        <v>581.3985</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9976</v>
-      </c>
-      <c r="B51" s="0">
-        <v>594.8976</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>475.311</v>
+      </c>
+    </row>
+    <row r="48"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7999,7 +7967,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8020,10 +7988,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.033</v>
+        <v>0.0301</v>
       </c>
       <c r="B3" s="0">
-        <v>354.4122</v>
+        <v>353.6944</v>
       </c>
     </row>
     <row r="4">
@@ -8031,370 +7999,322 @@
         <v>0.0528</v>
       </c>
       <c r="B4" s="0">
-        <v>379.5022</v>
+        <v>387.3245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0739</v>
+        <v>0.0751</v>
       </c>
       <c r="B5" s="0">
-        <v>404.6939</v>
+        <v>413.9411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0946</v>
+        <v>0.1004</v>
       </c>
       <c r="B6" s="0">
-        <v>434.4829</v>
+        <v>440.8964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1154</v>
+        <v>0.1779</v>
       </c>
       <c r="B7" s="0">
-        <v>454.7754</v>
+        <v>502.6137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1363</v>
+        <v>0.303</v>
       </c>
       <c r="B8" s="0">
-        <v>473.1308</v>
+        <v>567.6369</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1571</v>
+        <v>0.3238</v>
       </c>
       <c r="B9" s="0">
-        <v>487.0017</v>
+        <v>576.1615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1779</v>
+        <v>0.6362</v>
       </c>
       <c r="B10" s="0">
-        <v>502.6137</v>
+        <v>626.4389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1988</v>
+        <v>0.1504</v>
       </c>
       <c r="B11" s="0">
-        <v>517.0649</v>
+        <v>483.6097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2196</v>
+        <v>0.1248</v>
       </c>
       <c r="B12" s="0">
-        <v>529.7751</v>
+        <v>466.4841</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2405</v>
+        <v>0.2003</v>
       </c>
       <c r="B13" s="0">
-        <v>539.8473</v>
+        <v>517.8582</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2613</v>
+        <v>0.227</v>
       </c>
       <c r="B14" s="0">
-        <v>551.1857</v>
+        <v>532.142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2821</v>
+        <v>0.2548</v>
       </c>
       <c r="B15" s="0">
-        <v>559.1475</v>
+        <v>547.8506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.303</v>
+        <v>0.2722</v>
       </c>
       <c r="B16" s="0">
-        <v>567.6369</v>
+        <v>553.5796</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3238</v>
+        <v>0.2827</v>
       </c>
       <c r="B17" s="0">
-        <v>576.1615</v>
+        <v>557.8704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3446</v>
+        <v>0.3511</v>
       </c>
       <c r="B18" s="0">
-        <v>582.2944</v>
+        <v>582.2059</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3655</v>
+        <v>0.3767</v>
       </c>
       <c r="B19" s="0">
-        <v>588.8845</v>
+        <v>590.798</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3863</v>
+        <v>0.4033</v>
       </c>
       <c r="B20" s="0">
-        <v>593.2586</v>
+        <v>596.5484</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4071</v>
+        <v>0.43</v>
       </c>
       <c r="B21" s="0">
-        <v>597.6328</v>
+        <v>600.8765</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4279</v>
+        <v>0.4811</v>
       </c>
       <c r="B22" s="0">
-        <v>604.9088</v>
+        <v>608.1051</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4492</v>
+        <v>0.4555</v>
       </c>
       <c r="B23" s="0">
-        <v>606.3067</v>
+        <v>603.7796</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4696</v>
+        <v>0.5089</v>
       </c>
       <c r="B24" s="0">
-        <v>611.999</v>
+        <v>611.0136</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4904</v>
+        <v>0.5332</v>
       </c>
       <c r="B25" s="0">
-        <v>614.3206</v>
+        <v>613.9141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5112</v>
+        <v>0.5576</v>
       </c>
       <c r="B26" s="0">
-        <v>616.9713</v>
+        <v>616.8146</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5322</v>
+        <v>0.5831</v>
       </c>
       <c r="B27" s="0">
-        <v>616.2765</v>
+        <v>621.1401</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5529</v>
+        <v>0.6086</v>
       </c>
       <c r="B28" s="0">
-        <v>619.1775</v>
+        <v>624.0432</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5737</v>
+        <v>0.6597</v>
       </c>
       <c r="B29" s="0">
-        <v>622.8599</v>
+        <v>627.0051</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5945</v>
+        <v>0.6852</v>
       </c>
       <c r="B30" s="0">
-        <v>625.3934</v>
+        <v>624.2194</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6153</v>
+        <v>0.7118</v>
       </c>
       <c r="B31" s="0">
-        <v>625.8634</v>
+        <v>629.9697</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6362</v>
+        <v>0.7362</v>
       </c>
       <c r="B32" s="0">
-        <v>626.4389</v>
+        <v>631.448</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.657</v>
+        <v>0.7617</v>
       </c>
       <c r="B33" s="0">
-        <v>629.7579</v>
+        <v>631.5067</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6778</v>
+        <v>0.7849</v>
       </c>
       <c r="B34" s="0">
-        <v>629.9113</v>
+        <v>631.56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6986</v>
+        <v>0.8104</v>
       </c>
       <c r="B35" s="0">
-        <v>630.8034</v>
+        <v>633.041</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7194</v>
+        <v>0.8359</v>
       </c>
       <c r="B36" s="0">
-        <v>632.5396</v>
+        <v>635.9442</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7403</v>
+        <v>0.8591</v>
       </c>
       <c r="B37" s="0">
-        <v>633.3261</v>
+        <v>635.9975</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.7611</v>
+        <v>0.8846</v>
       </c>
       <c r="B38" s="0">
-        <v>633.5851</v>
+        <v>640.323</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7819</v>
+        <v>0.9322</v>
       </c>
       <c r="B39" s="0">
-        <v>635.3213</v>
+        <v>646.1213</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8027</v>
+        <v>0.9067</v>
       </c>
       <c r="B40" s="0">
-        <v>638.6403</v>
+        <v>640.3737</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8236</v>
+        <v>0.9554</v>
       </c>
       <c r="B41" s="0">
-        <v>639.7434</v>
+        <v>650.4414</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8444</v>
+        <v>0.9751</v>
       </c>
       <c r="B42" s="0">
-        <v>640.3189</v>
+        <v>660.4425</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.8652</v>
+        <v>0.9949</v>
       </c>
       <c r="B43" s="0">
-        <v>642.3716</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.886</v>
-      </c>
-      <c r="B44" s="0">
-        <v>644.1078</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9068</v>
-      </c>
-      <c r="B45" s="0">
-        <v>645.1054</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9277</v>
-      </c>
-      <c r="B46" s="0">
-        <v>647.7913</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9485</v>
-      </c>
-      <c r="B47" s="0">
-        <v>653.0624</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9705</v>
-      </c>
-      <c r="B48" s="0">
-        <v>658.2547</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9902</v>
-      </c>
-      <c r="B49" s="0">
-        <v>681.49</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>686.0882</v>
+      </c>
+    </row>
+    <row r="44"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8403,7 +8323,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8424,413 +8344,325 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0242</v>
+        <v>0.1272</v>
       </c>
       <c r="B3" s="0">
-        <v>510.5958</v>
+        <v>684.3579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0379</v>
+        <v>0.277</v>
       </c>
       <c r="B4" s="0">
-        <v>525.6005</v>
+        <v>869.8876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0512</v>
+        <v>0.402</v>
       </c>
       <c r="B5" s="0">
-        <v>555.4741</v>
+        <v>953.1129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0655</v>
+        <v>0.6103</v>
       </c>
       <c r="B6" s="0">
-        <v>582.074</v>
+        <v>992.6339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0797</v>
+        <v>0.7352</v>
       </c>
       <c r="B7" s="0">
-        <v>606.9544</v>
+        <v>1005.2671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0968</v>
+        <v>0.8602</v>
       </c>
       <c r="B8" s="0">
-        <v>638.3389</v>
+        <v>1013.363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.112</v>
+        <v>0.031</v>
       </c>
       <c r="B9" s="0">
-        <v>659.9482</v>
+        <v>514.6241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1272</v>
+        <v>0.0531</v>
       </c>
       <c r="B10" s="0">
-        <v>684.3579</v>
+        <v>560.1865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1442</v>
+        <v>0.0775</v>
       </c>
       <c r="B11" s="0">
-        <v>711.0417</v>
+        <v>604.332</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1613</v>
+        <v>0.102</v>
       </c>
       <c r="B12" s="0">
-        <v>733.3149</v>
+        <v>645.633</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1793</v>
+        <v>0.1543</v>
       </c>
       <c r="B13" s="0">
-        <v>759.146</v>
+        <v>722.5541</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1992</v>
+        <v>0.2008</v>
       </c>
       <c r="B14" s="0">
-        <v>787.1405</v>
+        <v>786.6616</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2201</v>
+        <v>0.2286</v>
       </c>
       <c r="B15" s="0">
-        <v>810.7719</v>
+        <v>820.8595</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2381</v>
+        <v>0.1798</v>
       </c>
       <c r="B16" s="0">
-        <v>829.6141</v>
+        <v>759.591</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2561</v>
+        <v>0.253</v>
       </c>
       <c r="B17" s="0">
-        <v>850.1076</v>
+        <v>846.5158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.277</v>
+        <v>0.3018</v>
       </c>
       <c r="B18" s="0">
-        <v>869.8876</v>
+        <v>890.7174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2978</v>
+        <v>0.3239</v>
       </c>
       <c r="B19" s="0">
-        <v>888.7178</v>
+        <v>910.6794</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3187</v>
+        <v>0.3564</v>
       </c>
       <c r="B20" s="0">
-        <v>908.0335</v>
+        <v>932.0877</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3395</v>
+        <v>0.3703</v>
       </c>
       <c r="B21" s="0">
-        <v>919.6252</v>
+        <v>937.8087</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3604</v>
+        <v>0.4306</v>
       </c>
       <c r="B22" s="0">
-        <v>932.9685</v>
+        <v>960.7033</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3812</v>
+        <v>0.4538</v>
       </c>
       <c r="B23" s="0">
-        <v>941.88</v>
+        <v>966.4457</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.402</v>
+        <v>0.4828</v>
       </c>
       <c r="B24" s="0">
-        <v>953.1129</v>
+        <v>975.0458</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4229</v>
+        <v>0.5084</v>
       </c>
       <c r="B25" s="0">
-        <v>962.763</v>
+        <v>982.2157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4437</v>
+        <v>0.535</v>
       </c>
       <c r="B26" s="0">
-        <v>969.5641</v>
+        <v>983.6993</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4645</v>
+        <v>0.5594</v>
       </c>
       <c r="B27" s="0">
-        <v>974.2549</v>
+        <v>985.1776</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4854</v>
+        <v>0.5837</v>
       </c>
       <c r="B28" s="0">
-        <v>977.3628</v>
+        <v>989.5004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5062</v>
+        <v>0.6342</v>
       </c>
       <c r="B29" s="0">
-        <v>981.4204</v>
+        <v>993.172</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.527</v>
+        <v>0.6603</v>
       </c>
       <c r="B30" s="0">
-        <v>984.6339</v>
+        <v>996.7877</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5478</v>
+        <v>0.6846</v>
       </c>
       <c r="B31" s="0">
-        <v>987.1088</v>
+        <v>998.266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5686</v>
+        <v>0.7113</v>
       </c>
       <c r="B32" s="0">
-        <v>989.4781</v>
+        <v>1002.5941</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5895</v>
+        <v>0.76</v>
       </c>
       <c r="B33" s="0">
-        <v>992.164</v>
+        <v>1005.5506</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6103</v>
+        <v>0.7855</v>
       </c>
       <c r="B34" s="0">
-        <v>992.6339</v>
+        <v>1007.0315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6311</v>
+        <v>0.8099</v>
       </c>
       <c r="B35" s="0">
-        <v>994.2646</v>
+        <v>1008.5098</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6519</v>
+        <v>0.8354</v>
       </c>
       <c r="B36" s="0">
-        <v>996.7395</v>
+        <v>1009.9908</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6728</v>
+        <v>0.8853</v>
       </c>
       <c r="B37" s="0">
-        <v>999.7419</v>
+        <v>1014.3722</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6936</v>
+        <v>0.9108</v>
       </c>
       <c r="B38" s="0">
-        <v>1002.0057</v>
+        <v>1017.2754</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7144</v>
+        <v>0.934</v>
       </c>
       <c r="B39" s="0">
-        <v>1004.164</v>
+        <v>1018.751</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.7352</v>
+        <v>0.9606</v>
       </c>
       <c r="B40" s="0">
-        <v>1005.2671</v>
+        <v>1024.5014</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.756</v>
+        <v>0.9804</v>
       </c>
       <c r="B41" s="0">
-        <v>1006.0537</v>
+        <v>1033.0802</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.7769</v>
+        <v>0.9932</v>
       </c>
       <c r="B42" s="0">
-        <v>1008.2119</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.7977</v>
-      </c>
-      <c r="B43" s="0">
-        <v>1009.5261</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8185</v>
-      </c>
-      <c r="B44" s="0">
-        <v>1011.8954</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8393</v>
-      </c>
-      <c r="B45" s="0">
-        <v>1011.0992</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8602</v>
-      </c>
-      <c r="B46" s="0">
-        <v>1013.363</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.881</v>
-      </c>
-      <c r="B47" s="0">
-        <v>1016.1544</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9018</v>
-      </c>
-      <c r="B48" s="0">
-        <v>1018.7347</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9226</v>
-      </c>
-      <c r="B49" s="0">
-        <v>1020.893</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9434</v>
-      </c>
-      <c r="B50" s="0">
-        <v>1022.4182</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9643</v>
-      </c>
-      <c r="B51" s="0">
-        <v>1027.742</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9851</v>
-      </c>
-      <c r="B52" s="0">
-        <v>1041.3868</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9993</v>
-      </c>
-      <c r="B53" s="0">
-        <v>1054.0177</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>1054.4431</v>
+      </c>
+    </row>
+    <row r="43"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 1 Preparation and electrochemical characterization/Data1_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 1 Preparation and electrochemical characterization/Data1_all_graphs_excel.xlsx
@@ -6755,7 +6755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6776,389 +6776,325 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0314</v>
+        <v>0.0296</v>
       </c>
       <c r="B3" s="0">
-        <v>52.3985</v>
+        <v>50.9723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0508</v>
+        <v>0.0465</v>
       </c>
       <c r="B4" s="0">
-        <v>55.7259</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0735</v>
+        <v>0.0737</v>
       </c>
       <c r="B5" s="0">
-        <v>57.2714</v>
+        <v>58.1849</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0939</v>
+        <v>0.101</v>
       </c>
       <c r="B6" s="0">
-        <v>65.5211</v>
+        <v>62.5144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1164</v>
+        <v>0.1288</v>
       </c>
       <c r="B7" s="0">
-        <v>64.6281</v>
+        <v>63.2895</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1343</v>
+        <v>0.1543</v>
       </c>
       <c r="B8" s="0">
-        <v>66.3444</v>
+        <v>66.9038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1564</v>
+        <v>0.181</v>
       </c>
       <c r="B9" s="0">
-        <v>70.3076</v>
+        <v>69.0986</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1772</v>
+        <v>0.2053</v>
       </c>
       <c r="B10" s="0">
-        <v>72.3604</v>
+        <v>70.5769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.198</v>
+        <v>0.2326</v>
       </c>
       <c r="B11" s="0">
-        <v>72.8304</v>
+        <v>70.6396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2183</v>
+        <v>0.2569</v>
       </c>
       <c r="B12" s="0">
-        <v>72.2967</v>
+        <v>71.4067</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2393</v>
+        <v>0.2824</v>
       </c>
       <c r="B13" s="0">
-        <v>72.0962</v>
+        <v>74.3099</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2605</v>
+        <v>0.3062</v>
       </c>
       <c r="B14" s="0">
-        <v>75.2955</v>
+        <v>77.2091</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2813</v>
+        <v>0.3323</v>
       </c>
       <c r="B15" s="0">
-        <v>76.8207</v>
+        <v>77.2691</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3021</v>
+        <v>0.3567</v>
       </c>
       <c r="B16" s="0">
-        <v>78.8735</v>
+        <v>78.7474</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.323</v>
+        <v>0.3828</v>
       </c>
       <c r="B17" s="0">
-        <v>80.1876</v>
+        <v>80.9408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3426</v>
+        <v>0.4094</v>
       </c>
       <c r="B18" s="0">
-        <v>79.4639</v>
+        <v>80.2911</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3642</v>
+        <v>0.4338</v>
       </c>
       <c r="B19" s="0">
-        <v>80.3555</v>
+        <v>81.7693</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3854</v>
+        <v>0.4599</v>
       </c>
       <c r="B20" s="0">
-        <v>83.0748</v>
+        <v>83.9627</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4062</v>
+        <v>0.4848</v>
       </c>
       <c r="B21" s="0">
-        <v>83.1227</v>
+        <v>84.0201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4271</v>
+        <v>0.5086</v>
       </c>
       <c r="B22" s="0">
-        <v>85.281</v>
+        <v>86.2082</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4479</v>
+        <v>0.5335</v>
       </c>
       <c r="B23" s="0">
-        <v>87.4393</v>
+        <v>87.6878</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.47</v>
+        <v>0.559</v>
       </c>
       <c r="B24" s="0">
-        <v>86.4919</v>
+        <v>88.4576</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4882</v>
+        <v>0.5839</v>
       </c>
       <c r="B25" s="0">
-        <v>87.0639</v>
+        <v>89.2261</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5095</v>
+        <v>0.6089</v>
       </c>
       <c r="B26" s="0">
-        <v>88.4622</v>
+        <v>89.2835</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5329</v>
+        <v>0.6338</v>
       </c>
       <c r="B27" s="0">
-        <v>89.7058</v>
+        <v>92.1853</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5533</v>
+        <v>0.6582</v>
       </c>
       <c r="B28" s="0">
-        <v>92.8442</v>
+        <v>92.9525</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5712</v>
+        <v>0.6848</v>
       </c>
       <c r="B29" s="0">
-        <v>92.1774</v>
+        <v>93.0138</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5919</v>
+        <v>0.7074</v>
       </c>
       <c r="B30" s="0">
-        <v>92.8496</v>
+        <v>93.777</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6138</v>
+        <v>0.7335</v>
       </c>
       <c r="B31" s="0">
-        <v>93.7369</v>
+        <v>95.2593</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6358</v>
+        <v>0.7585</v>
       </c>
       <c r="B32" s="0">
-        <v>92.9895</v>
+        <v>98.1611</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6578</v>
+        <v>0.7822</v>
       </c>
       <c r="B33" s="0">
-        <v>93.8381</v>
+        <v>98.2158</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6782</v>
+        <v>0.8078</v>
       </c>
       <c r="B34" s="0">
-        <v>96.6138</v>
+        <v>99.6968</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6964</v>
+        <v>0.8315</v>
       </c>
       <c r="B35" s="0">
-        <v>97.9949</v>
+        <v>101.1737</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7177</v>
+        <v>0.8553</v>
       </c>
       <c r="B36" s="0">
-        <v>96.9502</v>
+        <v>103.3618</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.739</v>
+        <v>0.8814</v>
       </c>
       <c r="B37" s="0">
-        <v>100.0252</v>
+        <v>104.1329</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.761</v>
+        <v>0.9046</v>
       </c>
       <c r="B38" s="0">
-        <v>99.8272</v>
+        <v>107.0308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7808</v>
+        <v>0.9278</v>
       </c>
       <c r="B39" s="0">
-        <v>99.1991</v>
+        <v>110.6397</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8017</v>
+        <v>0.955</v>
       </c>
       <c r="B40" s="0">
-        <v>101.4514</v>
+        <v>115.6803</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8223</v>
+        <v>0.9753</v>
       </c>
       <c r="B41" s="0">
-        <v>103.0798</v>
+        <v>122.8382</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8452</v>
+        <v>0.9963</v>
       </c>
       <c r="B42" s="0">
-        <v>105.0397</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8656</v>
-      </c>
-      <c r="B43" s="0">
-        <v>107.1342</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8842</v>
-      </c>
-      <c r="B44" s="0">
-        <v>106.5997</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9043</v>
-      </c>
-      <c r="B45" s="0">
-        <v>108.3891</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9256</v>
-      </c>
-      <c r="B46" s="0">
-        <v>110.6315</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9492</v>
-      </c>
-      <c r="B47" s="0">
-        <v>113.4768</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9694</v>
-      </c>
-      <c r="B48" s="0">
-        <v>118.7768</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9879</v>
-      </c>
-      <c r="B49" s="0">
-        <v>136.4333</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>1.0016</v>
-      </c>
-      <c r="B50" s="0">
-        <v>146.6431</v>
-      </c>
-    </row>
-    <row r="51"/>
+        <v>148.4866</v>
+      </c>
+    </row>
+    <row r="43"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7167,7 +7103,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7188,389 +7124,333 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0297</v>
+        <v>0.0269</v>
       </c>
       <c r="B3" s="0">
-        <v>124.147</v>
+        <v>122.0777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0505</v>
+        <v>0.0506</v>
       </c>
       <c r="B4" s="0">
-        <v>131.8526</v>
+        <v>130.6659</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0713</v>
+        <v>0.0785</v>
       </c>
       <c r="B5" s="0">
-        <v>141.759</v>
+        <v>139.2633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0922</v>
+        <v>0.1057</v>
       </c>
       <c r="B6" s="0">
-        <v>146.8718</v>
+        <v>144.3039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1117</v>
+        <v>0.1278</v>
       </c>
       <c r="B7" s="0">
-        <v>147.0953</v>
+        <v>148.6213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1322</v>
+        <v>0.1516</v>
       </c>
       <c r="B8" s="0">
-        <v>150.9434</v>
+        <v>153.6538</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1538</v>
+        <v>0.1759</v>
       </c>
       <c r="B9" s="0">
-        <v>154.9728</v>
+        <v>158.6877</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1755</v>
+        <v>0.2043</v>
       </c>
       <c r="B10" s="0">
-        <v>159.6202</v>
+        <v>159.4642</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1964</v>
+        <v>0.2304</v>
       </c>
       <c r="B11" s="0">
-        <v>162.2009</v>
+        <v>160.9465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2171</v>
+        <v>0.2571</v>
       </c>
       <c r="B12" s="0">
-        <v>165.414</v>
+        <v>163.8524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2379</v>
+        <v>0.2803</v>
       </c>
       <c r="B13" s="0">
-        <v>165.884</v>
+        <v>165.328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2588</v>
+        <v>0.3075</v>
       </c>
       <c r="B14" s="0">
-        <v>167.4092</v>
+        <v>168.2351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2796</v>
+        <v>0.333</v>
       </c>
       <c r="B15" s="0">
-        <v>169.5675</v>
+        <v>170.4272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3004</v>
+        <v>0.3591</v>
       </c>
       <c r="B16" s="0">
-        <v>171.6202</v>
+        <v>173.3317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3212</v>
+        <v>0.3823</v>
       </c>
       <c r="B17" s="0">
-        <v>173.9895</v>
+        <v>174.0962</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.342</v>
+        <v>0.4102</v>
       </c>
       <c r="B18" s="0">
-        <v>174.7761</v>
+        <v>175.5825</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3629</v>
+        <v>0.4345</v>
       </c>
       <c r="B19" s="0">
-        <v>176.6178</v>
+        <v>177.0608</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3837</v>
+        <v>0.4589</v>
       </c>
       <c r="B20" s="0">
-        <v>176.6657</v>
+        <v>179.2502</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4045</v>
+        <v>0.4832</v>
       </c>
       <c r="B21" s="0">
-        <v>177.8743</v>
+        <v>180.7285</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4253</v>
+        <v>0.5087</v>
       </c>
       <c r="B22" s="0">
-        <v>181.0878</v>
+        <v>181.4983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4475</v>
+        <v>0.5331</v>
       </c>
       <c r="B23" s="0">
-        <v>180.8141</v>
+        <v>182.9766</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4664</v>
+        <v>0.558</v>
       </c>
       <c r="B24" s="0">
-        <v>182.1396</v>
+        <v>183.745</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4865</v>
+        <v>0.5818</v>
       </c>
       <c r="B25" s="0">
-        <v>185.011</v>
+        <v>185.222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5094</v>
+        <v>0.6085</v>
       </c>
       <c r="B26" s="0">
-        <v>185.9176</v>
+        <v>188.1278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5311</v>
+        <v>0.6334</v>
       </c>
       <c r="B27" s="0">
-        <v>187.1799</v>
+        <v>188.8963</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5503</v>
+        <v>0.6589</v>
       </c>
       <c r="B28" s="0">
-        <v>188.6398</v>
+        <v>190.3773</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5698</v>
+        <v>0.6833</v>
       </c>
       <c r="B29" s="0">
-        <v>189.6015</v>
+        <v>189.7222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5906</v>
+        <v>0.7082</v>
       </c>
       <c r="B30" s="0">
-        <v>190.1911</v>
+        <v>193.3352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6125</v>
+        <v>0.7314</v>
       </c>
       <c r="B31" s="0">
-        <v>190.4735</v>
+        <v>191.9663</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6348</v>
+        <v>0.7592</v>
       </c>
       <c r="B32" s="0">
-        <v>190.9891</v>
+        <v>194.8748</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.656</v>
+        <v>0.7824</v>
       </c>
       <c r="B33" s="0">
-        <v>192.5247</v>
+        <v>195.6393</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6752</v>
+        <v>0.8079</v>
       </c>
       <c r="B34" s="0">
-        <v>194.2844</v>
+        <v>198.5425</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6942</v>
+        <v>0.8334</v>
       </c>
       <c r="B35" s="0">
-        <v>195.1497</v>
+        <v>197.8901</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7156</v>
+        <v>0.8572</v>
       </c>
       <c r="B36" s="0">
-        <v>195.6052</v>
+        <v>200.7892</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7376</v>
+        <v>0.8821</v>
       </c>
       <c r="B37" s="0">
-        <v>196.6092</v>
+        <v>203.6911</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.7592</v>
+        <v>0.9059</v>
       </c>
       <c r="B38" s="0">
-        <v>197.6027</v>
+        <v>206.5903</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7806</v>
+        <v>0.928</v>
       </c>
       <c r="B39" s="0">
-        <v>198.5448</v>
+        <v>208.7743</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8001</v>
+        <v>0.9511</v>
       </c>
       <c r="B40" s="0">
-        <v>203.476</v>
+        <v>213.0944</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8193</v>
+        <v>0.9749</v>
       </c>
       <c r="B41" s="0">
-        <v>202.1032</v>
+        <v>221.6826</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8425</v>
+        <v>0.9953</v>
       </c>
       <c r="B42" s="0">
-        <v>202.6099</v>
+        <v>249.463</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.8626</v>
+        <v>0.9802</v>
       </c>
       <c r="B43" s="0">
-        <v>206.1522</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8834</v>
-      </c>
-      <c r="B44" s="0">
-        <v>206.9388</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9034</v>
-      </c>
-      <c r="B45" s="0">
-        <v>206.0001</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9256</v>
-      </c>
-      <c r="B46" s="0">
-        <v>209.0012</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9475</v>
-      </c>
-      <c r="B47" s="0">
-        <v>211.9961</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9683</v>
-      </c>
-      <c r="B48" s="0">
-        <v>217.8669</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9859</v>
-      </c>
-      <c r="B49" s="0">
-        <v>233.6598</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>1.0008</v>
-      </c>
-      <c r="B50" s="0">
-        <v>248.3963</v>
-      </c>
-    </row>
-    <row r="51"/>
+        <v>230.9391</v>
+      </c>
+    </row>
+    <row r="44"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7579,7 +7459,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7600,365 +7480,325 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1494</v>
+        <v>0.1512</v>
       </c>
       <c r="B3" s="0">
-        <v>428.9489</v>
+        <v>430.3751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2281</v>
+        <v>0.2316</v>
       </c>
       <c r="B4" s="0">
-        <v>465.5361</v>
+        <v>466.2553</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.2953</v>
+        <v>0.2813</v>
       </c>
       <c r="B5" s="0">
-        <v>486.2117</v>
+        <v>483.3352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.3161</v>
+        <v>0.3786</v>
       </c>
       <c r="B6" s="0">
-        <v>492.0104</v>
+        <v>509.3537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.3369</v>
+        <v>0.4035</v>
       </c>
       <c r="B7" s="0">
-        <v>498.0729</v>
+        <v>515.6871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3577</v>
+        <v>0.4266</v>
       </c>
       <c r="B8" s="0">
-        <v>504.3464</v>
+        <v>519.7775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3786</v>
+        <v>0.026</v>
       </c>
       <c r="B9" s="0">
-        <v>509.3537</v>
+        <v>321.1887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3994</v>
+        <v>0.0516</v>
       </c>
       <c r="B10" s="0">
-        <v>514.2555</v>
+        <v>355.3812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4202</v>
+        <v>0.0772</v>
       </c>
       <c r="B11" s="0">
-        <v>519.0517</v>
+        <v>379.618</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4418</v>
+        <v>0.1004</v>
       </c>
       <c r="B12" s="0">
-        <v>522.2903</v>
+        <v>393.8938</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4619</v>
+        <v>0.1259</v>
       </c>
       <c r="B13" s="0">
-        <v>529.0351</v>
+        <v>412.4416</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4814</v>
+        <v>0.1752</v>
       </c>
       <c r="B14" s="0">
-        <v>529.327</v>
+        <v>443.1332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5022</v>
+        <v>0.2008</v>
       </c>
       <c r="B15" s="0">
-        <v>534.8811</v>
+        <v>455.2809</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5227</v>
+        <v>0.2512</v>
       </c>
       <c r="B16" s="0">
-        <v>536.0993</v>
+        <v>473.8861</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5449</v>
+        <v>0.3034</v>
       </c>
       <c r="B17" s="0">
-        <v>538.5869</v>
+        <v>491.0731</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5661</v>
+        <v>0.3255</v>
       </c>
       <c r="B18" s="0">
-        <v>541.5752</v>
+        <v>496.8127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5868</v>
+        <v>0.3522</v>
       </c>
       <c r="B19" s="0">
-        <v>542.3326</v>
+        <v>503.9853</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6083</v>
+        <v>0.4548</v>
       </c>
       <c r="B20" s="0">
-        <v>543.3756</v>
+        <v>523.4217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6285</v>
+        <v>0.4798</v>
       </c>
       <c r="B21" s="0">
-        <v>546.6492</v>
+        <v>525.6125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6493</v>
+        <v>0.5064</v>
       </c>
       <c r="B22" s="0">
-        <v>548.7019</v>
+        <v>530.6517</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6701</v>
+        <v>0.5337</v>
       </c>
       <c r="B23" s="0">
-        <v>550.206</v>
+        <v>535.6922</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6909</v>
+        <v>0.5586</v>
       </c>
       <c r="B24" s="0">
-        <v>552.913</v>
+        <v>538.5941</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7117</v>
+        <v>0.5841</v>
       </c>
       <c r="B25" s="0">
-        <v>551.6947</v>
+        <v>540.075</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7326</v>
+        <v>0.6097</v>
       </c>
       <c r="B26" s="0">
-        <v>553.4309</v>
+        <v>542.9782</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7534</v>
+        <v>0.634</v>
       </c>
       <c r="B27" s="0">
-        <v>555.1671</v>
+        <v>544.4565</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7742</v>
+        <v>0.6595</v>
       </c>
       <c r="B28" s="0">
-        <v>556.4812</v>
+        <v>546.6485</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7947</v>
+        <v>0.685</v>
       </c>
       <c r="B29" s="0">
-        <v>557.4429</v>
+        <v>550.2628</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8158</v>
+        <v>0.7111</v>
       </c>
       <c r="B30" s="0">
-        <v>560.3757</v>
+        <v>552.4562</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8367</v>
+        <v>0.7366</v>
       </c>
       <c r="B31" s="0">
-        <v>559.7905</v>
+        <v>553.2261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8575</v>
+        <v>0.7598</v>
       </c>
       <c r="B32" s="0">
-        <v>559.8384</v>
+        <v>553.9906</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8783</v>
+        <v>0.7842</v>
       </c>
       <c r="B33" s="0">
-        <v>561.6802</v>
+        <v>555.4688</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8991</v>
+        <v>0.8103</v>
       </c>
       <c r="B34" s="0">
-        <v>564.6826</v>
+        <v>558.3734</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.92</v>
+        <v>0.8352</v>
       </c>
       <c r="B35" s="0">
-        <v>565.4692</v>
+        <v>559.1418</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.9408</v>
+        <v>0.8596</v>
       </c>
       <c r="B36" s="0">
-        <v>568.0759</v>
+        <v>559.909</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9616</v>
+        <v>0.8833</v>
       </c>
       <c r="B37" s="0">
-        <v>571.6323</v>
+        <v>562.8082</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9824</v>
+        <v>0.9088</v>
       </c>
       <c r="B38" s="0">
-        <v>581.3985</v>
+        <v>563.578</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9976</v>
+        <v>0.9326</v>
       </c>
       <c r="B39" s="0">
-        <v>594.8976</v>
+        <v>565.0549</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.026</v>
+        <v>0.957</v>
       </c>
       <c r="B40" s="0">
-        <v>321.1887</v>
+        <v>570.7999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.0516</v>
+        <v>0.9773</v>
       </c>
       <c r="B41" s="0">
-        <v>355.3812</v>
+        <v>577.9578</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.0772</v>
+        <v>0.9953</v>
       </c>
       <c r="B42" s="0">
-        <v>379.618</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.1004</v>
-      </c>
-      <c r="B43" s="0">
-        <v>393.8938</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.1259</v>
-      </c>
-      <c r="B44" s="0">
-        <v>412.4416</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.1747</v>
-      </c>
-      <c r="B45" s="0">
-        <v>443.843</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.2002</v>
-      </c>
-      <c r="B46" s="0">
-        <v>453.8573</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.2524</v>
-      </c>
-      <c r="B47" s="0">
-        <v>475.311</v>
-      </c>
-    </row>
-    <row r="48"/>
+        <v>594.355</v>
+      </c>
+    </row>
+    <row r="43"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8360,306 +8200,306 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.402</v>
+        <v>0.031</v>
       </c>
       <c r="B5" s="0">
-        <v>953.1129</v>
+        <v>514.6241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.6103</v>
+        <v>0.0531</v>
       </c>
       <c r="B6" s="0">
-        <v>992.6339</v>
+        <v>560.1865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7352</v>
+        <v>0.0775</v>
       </c>
       <c r="B7" s="0">
-        <v>1005.2671</v>
+        <v>604.332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8602</v>
+        <v>0.102</v>
       </c>
       <c r="B8" s="0">
-        <v>1013.363</v>
+        <v>645.633</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.031</v>
+        <v>0.1543</v>
       </c>
       <c r="B9" s="0">
-        <v>514.6241</v>
+        <v>722.5541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0531</v>
+        <v>0.2008</v>
       </c>
       <c r="B10" s="0">
-        <v>560.1865</v>
+        <v>786.6616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0775</v>
+        <v>0.2286</v>
       </c>
       <c r="B11" s="0">
-        <v>604.332</v>
+        <v>820.8595</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.102</v>
+        <v>0.1798</v>
       </c>
       <c r="B12" s="0">
-        <v>645.633</v>
+        <v>759.591</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1543</v>
+        <v>0.253</v>
       </c>
       <c r="B13" s="0">
-        <v>722.5541</v>
+        <v>846.5158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2008</v>
+        <v>0.3018</v>
       </c>
       <c r="B14" s="0">
-        <v>786.6616</v>
+        <v>890.7174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2286</v>
+        <v>0.3239</v>
       </c>
       <c r="B15" s="0">
-        <v>820.8595</v>
+        <v>910.6794</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1798</v>
+        <v>0.3564</v>
       </c>
       <c r="B16" s="0">
-        <v>759.591</v>
+        <v>932.0877</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.253</v>
+        <v>0.3703</v>
       </c>
       <c r="B17" s="0">
-        <v>846.5158</v>
+        <v>937.8087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3018</v>
+        <v>0.4028</v>
       </c>
       <c r="B18" s="0">
-        <v>890.7174</v>
+        <v>953.5281</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3239</v>
+        <v>0.4312</v>
       </c>
       <c r="B19" s="0">
-        <v>910.6794</v>
+        <v>960.7047</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3564</v>
+        <v>0.4544</v>
       </c>
       <c r="B20" s="0">
-        <v>932.0877</v>
+        <v>967.1581</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3703</v>
+        <v>0.4828</v>
       </c>
       <c r="B21" s="0">
-        <v>937.8087</v>
+        <v>975.7569</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4306</v>
+        <v>0.5095</v>
       </c>
       <c r="B22" s="0">
-        <v>960.7033</v>
+        <v>980.7961</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4538</v>
+        <v>0.5345</v>
       </c>
       <c r="B23" s="0">
-        <v>966.4457</v>
+        <v>984.4091</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4828</v>
+        <v>0.56</v>
       </c>
       <c r="B24" s="0">
-        <v>975.0458</v>
+        <v>986.6012</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5084</v>
+        <v>0.5843</v>
       </c>
       <c r="B25" s="0">
-        <v>982.2157</v>
+        <v>989.5017</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.535</v>
+        <v>0.6104</v>
       </c>
       <c r="B26" s="0">
-        <v>983.6993</v>
+        <v>992.4062</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5594</v>
+        <v>0.6348</v>
       </c>
       <c r="B27" s="0">
-        <v>985.1776</v>
+        <v>993.8845</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5837</v>
+        <v>0.6597</v>
       </c>
       <c r="B28" s="0">
-        <v>989.5004</v>
+        <v>995.3641</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6342</v>
+        <v>0.6835</v>
       </c>
       <c r="B29" s="0">
-        <v>993.172</v>
+        <v>998.9744</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6603</v>
+        <v>0.7107</v>
       </c>
       <c r="B30" s="0">
-        <v>996.7877</v>
+        <v>1001.8816</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6846</v>
+        <v>0.7351</v>
       </c>
       <c r="B31" s="0">
-        <v>998.266</v>
+        <v>1004.071</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7113</v>
+        <v>0.7589</v>
       </c>
       <c r="B32" s="0">
-        <v>1002.5941</v>
+        <v>1004.8368</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.76</v>
+        <v>0.7855</v>
       </c>
       <c r="B33" s="0">
-        <v>1005.5506</v>
+        <v>1007.0315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7855</v>
+        <v>0.8093</v>
       </c>
       <c r="B34" s="0">
-        <v>1007.0315</v>
+        <v>1008.5085</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8099</v>
+        <v>0.8348</v>
       </c>
       <c r="B35" s="0">
-        <v>1008.5098</v>
+        <v>1009.2783</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8354</v>
+        <v>0.8597</v>
       </c>
       <c r="B36" s="0">
-        <v>1009.9908</v>
+        <v>1012.1802</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8853</v>
+        <v>0.8858</v>
       </c>
       <c r="B37" s="0">
-        <v>1014.3722</v>
+        <v>1015.0847</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9108</v>
+        <v>0.9102</v>
       </c>
       <c r="B38" s="0">
-        <v>1017.2754</v>
+        <v>1017.2741</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.934</v>
+        <v>0.9334</v>
       </c>
       <c r="B39" s="0">
-        <v>1018.751</v>
+        <v>1018.7497</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9606</v>
+        <v>0.9601</v>
       </c>
       <c r="B40" s="0">
-        <v>1024.5014</v>
+        <v>1025.2111</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9804</v>
+        <v>0.9786</v>
       </c>
       <c r="B41" s="0">
-        <v>1033.0802</v>
+        <v>1033.0762</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9932</v>
+        <v>0.9943</v>
       </c>
       <c r="B42" s="0">
-        <v>1054.4431</v>
+        <v>1053.0236</v>
       </c>
     </row>
     <row r="43"/>
@@ -8671,7 +8511,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8692,301 +8532,349 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0308</v>
+        <v>0.9916</v>
       </c>
       <c r="B3" s="0">
-        <v>340.5487</v>
+        <v>688.9624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0458</v>
+        <v>0.977</v>
       </c>
       <c r="B4" s="0">
-        <v>366.5233</v>
+        <v>677.3581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1334</v>
+        <v>0.9593</v>
       </c>
       <c r="B5" s="0">
-        <v>455.3781</v>
+        <v>667.4683</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1614</v>
+        <v>0.9316</v>
       </c>
       <c r="B6" s="0">
-        <v>477.3338</v>
+        <v>662.722</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1893</v>
+        <v>0.9087</v>
       </c>
       <c r="B7" s="0">
-        <v>500.9563</v>
+        <v>659.697</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2651</v>
+        <v>0.8867</v>
       </c>
       <c r="B8" s="0">
-        <v>556.3272</v>
+        <v>657.5315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.294</v>
+        <v>0.8601</v>
       </c>
       <c r="B9" s="0">
-        <v>567.1858</v>
+        <v>655.3621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3283</v>
+        <v>0.8351</v>
       </c>
       <c r="B10" s="0">
-        <v>587.6533</v>
+        <v>654.4819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3572</v>
+        <v>0.81</v>
       </c>
       <c r="B11" s="0">
-        <v>597.236</v>
+        <v>652.3138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3861</v>
+        <v>0.7844</v>
       </c>
       <c r="B12" s="0">
-        <v>607.3755</v>
+        <v>652.2918</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.415</v>
+        <v>0.7594</v>
       </c>
       <c r="B13" s="0">
-        <v>618.1544</v>
+        <v>650.9823</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4438</v>
+        <v>0.7349</v>
       </c>
       <c r="B14" s="0">
-        <v>626.8178</v>
+        <v>648.3853</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4727</v>
+        <v>0.7088</v>
       </c>
       <c r="B15" s="0">
-        <v>632.4556</v>
+        <v>648.3629</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5016</v>
+        <v>0.6842</v>
       </c>
       <c r="B16" s="0">
-        <v>637.0299</v>
+        <v>646.1952</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5305</v>
+        <v>0.6602</v>
       </c>
       <c r="B17" s="0">
-        <v>638.7868</v>
+        <v>646.1746</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5594</v>
+        <v>0.6341</v>
       </c>
       <c r="B18" s="0">
-        <v>640.4943</v>
+        <v>643.5762</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5882</v>
+        <v>0.6101</v>
       </c>
       <c r="B19" s="0">
-        <v>642.5884</v>
+        <v>641.8383</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6171</v>
+        <v>0.584</v>
       </c>
       <c r="B20" s="0">
-        <v>644.2836</v>
+        <v>639.6692</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.646</v>
+        <v>0.5579</v>
       </c>
       <c r="B21" s="0">
-        <v>645.9694</v>
+        <v>637.5002</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6749</v>
+        <v>0.5339</v>
       </c>
       <c r="B22" s="0">
-        <v>648.8708</v>
+        <v>635.333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7037</v>
+        <v>0.5094</v>
       </c>
       <c r="B23" s="0">
-        <v>650.3525</v>
+        <v>630.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7326</v>
+        <v>0.4833</v>
       </c>
       <c r="B24" s="0">
-        <v>651.5187</v>
+        <v>625.8443</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7615</v>
+        <v>0.4593</v>
       </c>
       <c r="B25" s="0">
-        <v>652.8426</v>
+        <v>623.2477</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7904</v>
+        <v>0.4301</v>
       </c>
       <c r="B26" s="0">
-        <v>654.0273</v>
+        <v>615.9241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8193</v>
+        <v>0.3987</v>
       </c>
       <c r="B27" s="0">
-        <v>655.6606</v>
+        <v>613.7506</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8481</v>
+        <v>0.3742</v>
       </c>
       <c r="B28" s="0">
-        <v>656.6288</v>
+        <v>602.9964</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.877</v>
+        <v>0.3486</v>
       </c>
       <c r="B29" s="0">
-        <v>657.9063</v>
+        <v>593.5292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9059</v>
+        <v>0.322</v>
       </c>
       <c r="B30" s="0">
-        <v>660.7614</v>
+        <v>583.2025</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9348</v>
+        <v>0.2985</v>
       </c>
       <c r="B31" s="0">
-        <v>665.0083</v>
+        <v>572.4492</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9637</v>
+        <v>0.2756</v>
       </c>
       <c r="B32" s="0">
-        <v>671.9</v>
+        <v>559.1204</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9889</v>
+        <v>0.2286</v>
       </c>
       <c r="B33" s="0">
-        <v>685.3179</v>
+        <v>532.8911</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.1117</v>
+        <v>0.1994</v>
       </c>
       <c r="B34" s="0">
-        <v>436.6217</v>
+        <v>513.117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0898</v>
+        <v>0.1806</v>
       </c>
       <c r="B35" s="0">
-        <v>415.1365</v>
+        <v>496.3572</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0762</v>
+        <v>0.1717</v>
       </c>
       <c r="B36" s="0">
-        <v>397.9518</v>
+        <v>489.4803</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0595</v>
+        <v>0.1566</v>
       </c>
       <c r="B37" s="0">
-        <v>378.1885</v>
+        <v>476.1582</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.215</v>
+        <v>0.1446</v>
       </c>
       <c r="B38" s="0">
-        <v>519.9997</v>
+        <v>467.5614</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.2422</v>
+        <v>0.13</v>
       </c>
       <c r="B39" s="0">
-        <v>539.772</v>
-      </c>
-    </row>
-    <row r="40"/>
+        <v>452.0931</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.1185</v>
+      </c>
+      <c r="B40" s="0">
+        <v>442.2087</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.1039</v>
+      </c>
+      <c r="B41" s="0">
+        <v>428.8871</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.095</v>
+      </c>
+      <c r="B42" s="0">
+        <v>421.1516</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0746</v>
+      </c>
+      <c r="B43" s="0">
+        <v>396.6625</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0501</v>
+      </c>
+      <c r="B44" s="0">
+        <v>370.0232</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0271</v>
+      </c>
+      <c r="B45" s="0">
+        <v>336.9454</v>
+      </c>
+    </row>
+    <row r="46"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8995,7 +8883,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9016,445 +8904,365 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0305</v>
+        <v>0.9943</v>
       </c>
       <c r="B3" s="0">
-        <v>429.7698</v>
+        <v>933.6807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0449</v>
+        <v>0.9781</v>
       </c>
       <c r="B4" s="0">
-        <v>454.3197</v>
+        <v>891.1635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0558</v>
+        <v>0.9567</v>
       </c>
       <c r="B5" s="0">
-        <v>468.3942</v>
+        <v>880.4119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0684</v>
+        <v>0.9337</v>
       </c>
       <c r="B6" s="0">
-        <v>487.6137</v>
+        <v>875.2403</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0792</v>
+        <v>0.9092</v>
       </c>
       <c r="B7" s="0">
-        <v>503.5925</v>
+        <v>870.926</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0942</v>
+        <v>0.8857</v>
       </c>
       <c r="B8" s="0">
-        <v>524.9414</v>
+        <v>868.7592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1072</v>
+        <v>0.8606</v>
       </c>
       <c r="B9" s="0">
-        <v>538.998</v>
+        <v>865.7324</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1226</v>
+        <v>0.8351</v>
       </c>
       <c r="B10" s="0">
-        <v>559.9537</v>
+        <v>864.4225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1352</v>
+        <v>0.8105</v>
       </c>
       <c r="B11" s="0">
-        <v>572.2691</v>
+        <v>863.1134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1487</v>
+        <v>0.786</v>
       </c>
       <c r="B12" s="0">
-        <v>590.2902</v>
+        <v>861.375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1641</v>
+        <v>0.7604</v>
       </c>
       <c r="B13" s="0">
-        <v>605.2052</v>
+        <v>858.7771</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1794</v>
+        <v>0.7349</v>
       </c>
       <c r="B14" s="0">
-        <v>621.9343</v>
+        <v>856.6085</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1966</v>
+        <v>0.7103</v>
       </c>
       <c r="B15" s="0">
-        <v>639.5363</v>
+        <v>854.8702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2126</v>
+        <v>0.6848</v>
       </c>
       <c r="B16" s="0">
-        <v>655.449</v>
+        <v>852.7016</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2281</v>
+        <v>0.6571</v>
       </c>
       <c r="B17" s="0">
-        <v>669.8006</v>
+        <v>850.5312</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.248</v>
+        <v>0.6341</v>
       </c>
       <c r="B18" s="0">
-        <v>687.1281</v>
+        <v>845.7889</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2679</v>
+        <v>0.6091</v>
       </c>
       <c r="B19" s="0">
-        <v>704.5906</v>
+        <v>842.7621</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2859</v>
+        <v>0.584</v>
       </c>
       <c r="B20" s="0">
-        <v>717.4475</v>
+        <v>839.306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.304</v>
+        <v>0.5585</v>
       </c>
       <c r="B21" s="0">
-        <v>731.0429</v>
+        <v>834.1321</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3238</v>
+        <v>0.5324</v>
       </c>
       <c r="B22" s="0">
-        <v>745.7384</v>
+        <v>828.9578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3437</v>
+        <v>0.5068</v>
       </c>
       <c r="B23" s="0">
-        <v>758.2744</v>
+        <v>823.7839</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3635</v>
+        <v>0.4817</v>
       </c>
       <c r="B24" s="0">
-        <v>768.7519</v>
+        <v>816.4638</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3834</v>
+        <v>0.4546</v>
       </c>
       <c r="B25" s="0">
-        <v>776.9349</v>
+        <v>808.7127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4032</v>
+        <v>0.428</v>
       </c>
       <c r="B26" s="0">
-        <v>786.8321</v>
+        <v>799.2446</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4231</v>
+        <v>0.4019</v>
       </c>
       <c r="B27" s="0">
-        <v>796.5404</v>
+        <v>788.4891</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4429</v>
+        <v>0.3763</v>
       </c>
       <c r="B28" s="0">
-        <v>804.0485</v>
+        <v>775.5873</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.4628</v>
+        <v>0.3513</v>
       </c>
       <c r="B29" s="0">
-        <v>810.0044</v>
+        <v>761.8274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4826</v>
+        <v>0.3252</v>
       </c>
       <c r="B30" s="0">
-        <v>816.0841</v>
+        <v>743.7733</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5025</v>
+        <v>0.3017</v>
       </c>
       <c r="B31" s="0">
-        <v>821.6688</v>
+        <v>728.2973</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5224</v>
+        <v>0.2787</v>
       </c>
       <c r="B32" s="0">
-        <v>826.5899</v>
+        <v>712.3925</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5422</v>
+        <v>0.2469</v>
       </c>
       <c r="B33" s="0">
-        <v>830.9262</v>
+        <v>687.035</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5621</v>
+        <v>0.2265</v>
       </c>
       <c r="B34" s="0">
-        <v>834.5201</v>
+        <v>669.4151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.5819</v>
+        <v>0.1968</v>
       </c>
       <c r="B35" s="0">
-        <v>839.0388</v>
+        <v>640.1954</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6018</v>
+        <v>0.178</v>
       </c>
       <c r="B36" s="0">
-        <v>840.898</v>
+        <v>622.5769</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6216</v>
+        <v>0.1555</v>
       </c>
       <c r="B37" s="0">
-        <v>844.0194</v>
+        <v>596.798</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6415</v>
+        <v>0.1456</v>
       </c>
       <c r="B38" s="0">
-        <v>846.466</v>
+        <v>588.203</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.6613</v>
+        <v>0.13</v>
       </c>
       <c r="B39" s="0">
-        <v>849.7899</v>
+        <v>568.8698</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.6812</v>
+        <v>0.12</v>
       </c>
       <c r="B40" s="0">
-        <v>851.8316</v>
+        <v>558.1282</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.701</v>
+        <v>0.1033</v>
       </c>
       <c r="B41" s="0">
-        <v>853.5358</v>
+        <v>537.0768</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.7209</v>
+        <v>0.0939</v>
       </c>
       <c r="B42" s="0">
-        <v>855.555</v>
+        <v>528.0529</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.7407</v>
+        <v>0.0778</v>
       </c>
       <c r="B43" s="0">
-        <v>855.9995</v>
+        <v>502.7088</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.7606</v>
+        <v>0.072</v>
       </c>
       <c r="B44" s="0">
-        <v>858.3111</v>
+        <v>494.976</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.7805</v>
+        <v>0.0517</v>
       </c>
       <c r="B45" s="0">
-        <v>859.6441</v>
+        <v>465.7643</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.8003</v>
+        <v>0.047</v>
       </c>
       <c r="B46" s="0">
-        <v>863.0918</v>
+        <v>459.7497</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.8202</v>
+        <v>0.0292</v>
       </c>
       <c r="B47" s="0">
-        <v>863.0638</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B48" s="0">
-        <v>863.5758</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8599</v>
-      </c>
-      <c r="B49" s="0">
-        <v>865.55</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.8797</v>
-      </c>
-      <c r="B50" s="0">
-        <v>868.199</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.8996</v>
-      </c>
-      <c r="B51" s="0">
-        <v>870.1057</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9194</v>
-      </c>
-      <c r="B52" s="0">
-        <v>872.8223</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9393</v>
-      </c>
-      <c r="B53" s="0">
-        <v>877.6984</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9597</v>
-      </c>
-      <c r="B54" s="0">
-        <v>883.6522</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9775</v>
-      </c>
-      <c r="B55" s="0">
-        <v>895.7376</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.9883</v>
-      </c>
-      <c r="B56" s="0">
-        <v>921.2569</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.9943</v>
-      </c>
-      <c r="B57" s="0">
-        <v>931.1956</v>
-      </c>
-    </row>
-    <row r="58"/>
+        <v>425.3884</v>
+      </c>
+    </row>
+    <row r="48"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 1 Preparation and electrochemical characterization/Data1_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 1 Preparation and electrochemical characterization/Data1_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 AC0520  0-1-0-1100 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 AC1020  0-1-0-1100 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 AC2020  0-1-0-1100 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 AC3020  0-1-0-1100 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 AC4020  0-1-0-1100 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 3 AC3020_f3  0-1-300-950" sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 3 AC3030_f3  0-1-300-950" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 1 AC0520  0&amp;1&amp;0&amp;1100 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 AC1020  0&amp;1&amp;0&amp;1100 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 AC2020  0&amp;1&amp;0&amp;1100 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 AC3020  0&amp;1&amp;0&amp;1100 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 AC4020  0&amp;1&amp;0&amp;1100 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3 AC3020_f3  0&amp;1&amp;300&amp;950" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 3 AC3030_f3  0&amp;1&amp;300&amp;950" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -180,12 +180,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC0520  0-1-0-1100 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC0520  0&amp;1&amp;0&amp;1100 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC0520  0-1-0-1100 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC0520  0&amp;1&amp;0&amp;1100 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -494,12 +494,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC1020  0-1-0-1100 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC1020  0&amp;1&amp;0&amp;1100 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC1020  0-1-0-1100 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC1020  0&amp;1&amp;0&amp;1100 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -808,12 +808,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2020  0-1-0-1100 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC2020  0&amp;1&amp;0&amp;1100 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2020  0-1-0-1100 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC2020  0&amp;1&amp;0&amp;1100 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1122,12 +1122,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC3020  0-1-0-1100 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC3020  0&amp;1&amp;0&amp;1100 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC3020  0-1-0-1100 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC3020  0&amp;1&amp;0&amp;1100 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1436,12 +1436,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC4020  0-1-0-1100 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC4020  0&amp;1&amp;0&amp;1100 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC4020  0-1-0-1100 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC4020  0&amp;1&amp;0&amp;1100 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1750,12 +1750,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC3020_f3  0-1-300-950'!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC3020_f3  0&amp;1&amp;300&amp;950'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC3020_f3  0-1-300-950'!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC3020_f3  0&amp;1&amp;300&amp;950'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2064,12 +2064,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC3030_f3  0-1-300-950'!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC3030_f3  0&amp;1&amp;300&amp;950'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC3030_f3  0-1-300-950'!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC3030_f3  0&amp;1&amp;300&amp;950'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
